--- a/processed_files/Lib_Co_Boston_1824.xlsx
+++ b/processed_files/Lib_Co_Boston_1824.xlsx
@@ -20229,7 +20229,7 @@
   <dimension ref="A1:AA3136"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="S6" sqref="S6"/>
+      <selection activeCell="V14" sqref="V14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20379,8 +20379,8 @@
         <v>13</v>
       </c>
       <c r="S5">
-        <f>R5/(R10-R8)</f>
-        <v>0.10655737704918032</v>
+        <f>R5/(R10-R6-R8)</f>
+        <v>0.1111111111111111</v>
       </c>
       <c r="X5" s="2"/>
     </row>
